--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-naming-system.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-naming-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
